--- a/data/trans_dic/P14_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,03</t>
+          <t>0,0; 16,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,67</t>
+          <t>2,92; 28,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 9,23</t>
+          <t>0,0; 14,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 8,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,21</t>
+          <t>2,61; 14,97</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 11,38</t>
+          <t>0,0; 13,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 21,21</t>
+          <t>2,86; 24,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,22</t>
+          <t>0,0; 11,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 11,2</t>
+          <t>1,85; 17,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,87</t>
+          <t>0,93; 8,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,53</t>
+          <t>4,05; 16,59</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>12,29%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,75</t>
+          <t>0,0; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,22</t>
+          <t>4,99; 22,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,66</t>
+          <t>0,92; 8,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 17,11</t>
+          <t>7,3; 20,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,95</t>
+          <t>1,25; 7,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 14,98</t>
+          <t>7,73; 18,1</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,63</t>
+          <t>1,32; 12,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 17,47</t>
+          <t>4,94; 18,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,38</t>
+          <t>1,97; 11,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 14,44</t>
+          <t>4,76; 15,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,33</t>
+          <t>2,66; 9,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 13,79</t>
+          <t>5,6; 14,55</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>11,38%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 11,26</t>
+          <t>2,04; 14,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 16,68</t>
+          <t>5,34; 21,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 10,23</t>
+          <t>0,0; 11,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 17,05</t>
+          <t>4,3; 23,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,13</t>
+          <t>2,3; 10,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,2</t>
+          <t>5,75; 17,17</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,02</t>
+          <t>0,0; 14,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,93</t>
+          <t>0,0; 9,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,88</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,42</t>
+          <t>2,12; 6,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,89</t>
+          <t>6,36; 13,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,03</t>
+          <t>1,79; 5,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,28</t>
+          <t>5,97; 11,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,21</t>
+          <t>2,35; 4,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,35</t>
+          <t>6,92; 11,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11039</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4767</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6242</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15806</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17352</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3086; 30599</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12704</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17509</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20266</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5900; 33811</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6449</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13422</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5495</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8922</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11944</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22344</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22280</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4094; 34966</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18192</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2339; 21820</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3114; 29526</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10935; 44819</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15778</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9725</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26479</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14852</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>42257</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15856</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6704; 29754</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2424; 22899</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15274; 42788</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5313; 30673</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26566; 62231</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9526</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16011</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10958</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16419</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20484</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>32430</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2464; 23693</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7972; 29956</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4303; 24214</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8846; 28567</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10792; 38922</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19429; 50495</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10836</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14403</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11305</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15312</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25707</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3213; 23227</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7056; 27942</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13540</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4036; 22462</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6283; 28946</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12997; 38783</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2204</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2178</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13038</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9776</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15582</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35318</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>72857</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>33517</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>70069</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>68834</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>142927</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18916; 58489</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>48581; 100097</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18553; 55986</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>50215; 95685</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45266; 95735</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>110998; 179413</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>